--- a/results/FrequencyTables/26796669_gEnv1.xlsx
+++ b/results/FrequencyTables/26796669_gEnv1.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.09</v>
+        <v>0.145515525262361</v>
       </c>
       <c r="C2">
-        <v>0.17</v>
+        <v>0.172130260737856</v>
       </c>
       <c r="D2">
-        <v>0.86</v>
+        <v>0.761224710591799</v>
       </c>
       <c r="E2">
-        <v>0.79</v>
+        <v>0.808070972627935</v>
       </c>
       <c r="F2">
-        <v>0.16</v>
+        <v>0.178910166251938</v>
       </c>
       <c r="G2">
-        <v>0.84</v>
+        <v>0.695589455083126</v>
       </c>
       <c r="H2">
-        <v>0.04</v>
+        <v>0.116520610191496</v>
       </c>
       <c r="I2">
-        <v>0.22</v>
+        <v>0.122939882433553</v>
       </c>
       <c r="J2">
-        <v>0.98</v>
+        <v>0.922824479786505</v>
       </c>
       <c r="K2">
-        <v>0.1</v>
+        <v>0.298568285910058</v>
       </c>
       <c r="L2">
-        <v>0.18</v>
+        <v>0.0973709834469328</v>
       </c>
       <c r="M2">
-        <v>0.77</v>
+        <v>0.790003245699448</v>
       </c>
       <c r="N2">
-        <v>0.25</v>
+        <v>0.219084712755599</v>
       </c>
       <c r="O2">
-        <v>0.98</v>
+        <v>0.967218435572866</v>
       </c>
       <c r="P2">
-        <v>0.2</v>
+        <v>0.374445526344261</v>
       </c>
       <c r="Q2">
-        <v>0.18</v>
+        <v>0.0968300335388943</v>
       </c>
       <c r="R2">
-        <v>0.99</v>
+        <v>0.966533232356017</v>
       </c>
       <c r="S2">
-        <v>0.54</v>
+        <v>0.823974899924267</v>
       </c>
       <c r="T2">
-        <v>0.84</v>
+        <v>0.784593746619063</v>
       </c>
       <c r="U2">
-        <v>0.89</v>
+        <v>0.780013704064337</v>
       </c>
       <c r="V2">
-        <v>0.04</v>
+        <v>0.0872371885030113</v>
       </c>
       <c r="W2">
-        <v>0.01</v>
+        <v>0.0995708464062895</v>
       </c>
       <c r="X2">
-        <v>0.17</v>
+        <v>0.131162321035739</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.13</v>
+        <v>0.065491002199863</v>
       </c>
       <c r="C3">
-        <v>0.07</v>
+        <v>0.106927765155613</v>
       </c>
       <c r="D3">
-        <v>0.01</v>
+        <v>0.0338995275704136</v>
       </c>
       <c r="E3">
-        <v>0.13</v>
+        <v>0.068989144938512</v>
       </c>
       <c r="F3">
-        <v>0.7</v>
+        <v>0.618413934869631</v>
       </c>
       <c r="G3">
-        <v>0.09</v>
+        <v>0.161996465793934</v>
       </c>
       <c r="H3">
-        <v>0.17</v>
+        <v>0.0387680767427603</v>
       </c>
       <c r="I3">
-        <v>0.02</v>
+        <v>0.0561866637816005</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0209527931046918</v>
       </c>
       <c r="K3">
-        <v>0.03</v>
+        <v>0.0491903783043024</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.0164088138771683</v>
       </c>
       <c r="M3">
-        <v>0.14</v>
+        <v>0.0355223772945292</v>
       </c>
       <c r="N3">
-        <v>0.01</v>
+        <v>0.0680875617584478</v>
       </c>
       <c r="O3">
-        <v>0.01</v>
+        <v>0.00645533556925962</v>
       </c>
       <c r="P3">
-        <v>0.03</v>
+        <v>0.00717660211331097</v>
       </c>
       <c r="Q3">
-        <v>0.8</v>
+        <v>0.858595694038732</v>
       </c>
       <c r="R3">
-        <v>0.01</v>
+        <v>0.00894370514623679</v>
       </c>
       <c r="S3">
-        <v>0.02</v>
+        <v>0.0772476468679</v>
       </c>
       <c r="T3">
-        <v>0.04</v>
+        <v>0.0232969093728587</v>
       </c>
       <c r="U3">
-        <v>0.05</v>
+        <v>0.0355584406217318</v>
       </c>
       <c r="V3">
-        <v>0.03</v>
+        <v>0.07191027444192</v>
       </c>
       <c r="W3">
-        <v>0.01</v>
+        <v>0.0257492156226333</v>
       </c>
       <c r="X3">
-        <v>0.08</v>
+        <v>0.0850012622164521</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.72</v>
+        <v>0.67921670453316</v>
       </c>
       <c r="C4">
-        <v>0.02</v>
+        <v>0.0447906523855891</v>
       </c>
       <c r="D4">
-        <v>0.03</v>
+        <v>0.0693137148833351</v>
       </c>
       <c r="E4">
-        <v>0.02</v>
+        <v>0.0271556853835335</v>
       </c>
       <c r="F4">
-        <v>0.01</v>
+        <v>0.0424825994446248</v>
       </c>
       <c r="G4">
-        <v>0.06</v>
+        <v>0.0478199718706048</v>
       </c>
       <c r="H4">
-        <v>0.02</v>
+        <v>0.0842078690179956</v>
       </c>
       <c r="I4">
-        <v>0.07</v>
+        <v>0.0668974719607631</v>
       </c>
       <c r="J4">
-        <v>0.01</v>
+        <v>0.0256770889682282</v>
       </c>
       <c r="K4">
-        <v>0.73</v>
+        <v>0.588084676692272</v>
       </c>
       <c r="L4">
-        <v>0.02</v>
+        <v>0.0974070467741354</v>
       </c>
       <c r="M4">
-        <v>0.08</v>
+        <v>0.158065563128854</v>
       </c>
       <c r="N4">
-        <v>0.72</v>
+        <v>0.665837210141008</v>
       </c>
       <c r="O4">
-        <v>0.01</v>
+        <v>0.00768148869414692</v>
       </c>
       <c r="P4">
-        <v>0.76</v>
+        <v>0.605936023657543</v>
       </c>
       <c r="Q4">
-        <v>0.02</v>
+        <v>0.0208085397958816</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.00151465974250784</v>
       </c>
       <c r="S4">
-        <v>0.43</v>
+        <v>0.0921057376753579</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.0226477694832125</v>
       </c>
       <c r="U4">
-        <v>0.01</v>
+        <v>0.0223231995383894</v>
       </c>
       <c r="V4">
-        <v>0.19</v>
+        <v>0.0836308557827545</v>
       </c>
       <c r="W4">
-        <v>0.73</v>
+        <v>0.706913339824732</v>
       </c>
       <c r="X4">
-        <v>0.72</v>
+        <v>0.707129719787948</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.06</v>
+        <v>0.109704641350211</v>
       </c>
       <c r="C5">
-        <v>0.74</v>
+        <v>0.676043131739334</v>
       </c>
       <c r="D5">
-        <v>0.1</v>
+        <v>0.135453856972844</v>
       </c>
       <c r="E5">
-        <v>0.06</v>
+        <v>0.0957481337228173</v>
       </c>
       <c r="F5">
-        <v>0.13</v>
+        <v>0.160193299433806</v>
       </c>
       <c r="G5">
-        <v>0.01</v>
+        <v>0.0945580439251325</v>
       </c>
       <c r="H5">
-        <v>0.77</v>
+        <v>0.760503444047748</v>
       </c>
       <c r="I5">
-        <v>0.69</v>
+        <v>0.753831728515273</v>
       </c>
       <c r="J5">
-        <v>0.01</v>
+        <v>0.0305456381405749</v>
       </c>
       <c r="K5">
-        <v>0.14</v>
+        <v>0.064156659093368</v>
       </c>
       <c r="L5">
-        <v>0.8</v>
+        <v>0.788813155901763</v>
       </c>
       <c r="M5">
-        <v>0.01</v>
+        <v>0.0162284972411555</v>
       </c>
       <c r="N5">
-        <v>0.02</v>
+        <v>0.0469183886905406</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.0186447401637275</v>
       </c>
       <c r="P5">
-        <v>0.01</v>
+        <v>0.0123697212304807</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.0237296692992896</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.0230084027552382</v>
       </c>
       <c r="S5">
-        <v>0.01</v>
+        <v>0.00656352555086732</v>
       </c>
       <c r="T5">
-        <v>0.12</v>
+        <v>0.169461574524866</v>
       </c>
       <c r="U5">
-        <v>0.05</v>
+        <v>0.162032529121137</v>
       </c>
       <c r="V5">
-        <v>0.74</v>
+        <v>0.757221681272314</v>
       </c>
       <c r="W5">
-        <v>0.25</v>
+        <v>0.167730534819142</v>
       </c>
       <c r="X5">
-        <v>0.03</v>
+        <v>0.076670633632659</v>
       </c>
     </row>
   </sheetData>
